--- a/DataTypeCompilationWorkbooks/Definitions/Concept.xlsx
+++ b/DataTypeCompilationWorkbooks/Definitions/Concept.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13785"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts" sheetId="1" r:id="rId1"/>
+    <sheet name="values" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
-  <si>
-    <t>controlled vocabulary</t>
-  </si>
-  <si>
-    <t>date range</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
   <si>
     <t>primitive</t>
   </si>
@@ -59,9 +54,6 @@
     <t>data object</t>
   </si>
   <si>
-    <t xml:space="preserve">a data object that is a relation, a tuple consisting of a list of primitive values, with a record type defining the data type and semantics for each 'column' (position) in the tuple. </t>
-  </si>
-  <si>
     <t>table</t>
   </si>
   <si>
@@ -80,20 +72,221 @@
     <t>URI</t>
   </si>
   <si>
-    <t>logic-type-category</t>
-  </si>
-  <si>
     <t>This model</t>
   </si>
   <si>
     <t>skos:inScheme</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>long integer</t>
+  </si>
+  <si>
+    <t>real number</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>an indentifier string conforming to syntax defined by RFC-3986</t>
+  </si>
+  <si>
+    <t>IETF RFC-3986</t>
+  </si>
+  <si>
+    <t>a number that can be written without a fractional component.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Integer</t>
+  </si>
+  <si>
+    <t>Computer representation of an integer whose range is greater than or equal to that of a standard integer in the same computation environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a location with no spatial extent specified in some spatial reference system. </t>
+  </si>
+  <si>
+    <t>Real numbers can be thought of as points on an infinitely long line; a superset of the rational numbers, which include integers, which include natural numbers. Not countable--between any two real numbers there are other real numbers. Any real number can be determined by a possibly infinite decimal representation.</t>
+  </si>
+  <si>
+    <t>Based on https://en.wikipedia.org/wiki/Real_number</t>
+  </si>
+  <si>
+    <t>primitive-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sequence of characters. </t>
+  </si>
+  <si>
+    <t>A member of a controlled vocabulary; may be identified by a label or an indentifier string</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/String_(computer_science)</t>
+  </si>
+  <si>
+    <t>single atomic value</t>
+  </si>
+  <si>
+    <t>logic-type</t>
+  </si>
+  <si>
+    <t>aggregation-type</t>
+  </si>
+  <si>
+    <t>narrative text</t>
+  </si>
+  <si>
+    <t>vector</t>
+  </si>
+  <si>
+    <t>continuous field</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>coordinate measurement</t>
+  </si>
+  <si>
+    <t>ratio measurement</t>
+  </si>
+  <si>
+    <t>interval measurement</t>
+  </si>
+  <si>
+    <t>truth value</t>
+  </si>
+  <si>
+    <t>quantity kind</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>date time</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>clock time</t>
+  </si>
+  <si>
+    <t>A time position specified using date from the modern Gregorian Calendar</t>
+  </si>
+  <si>
+    <t>A time position within a 24 hour day</t>
+  </si>
+  <si>
+    <t>true or false</t>
+  </si>
+  <si>
+    <t>a quantity that specifies a direction within some spatial reference system, and a magnitude.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a quantity that specifies a positive integer number of instances </t>
+  </si>
+  <si>
+    <t>a quantifier that associates a location within some mathematical reference system with a quantity value</t>
+  </si>
+  <si>
+    <t>a nominal quantity, specified by a term or identifier</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>A string token that represents some other thing; depending on the identifier scheme,  might be dereferenceable, in which case it is a kind of reference.</t>
+  </si>
+  <si>
+    <t>A value for which the difference between values is meaningful, but not the ratio. Example --temperature celsius.</t>
+  </si>
+  <si>
+    <t>a string token intended to identify some thing for human usage; a kind of identifier</t>
+  </si>
+  <si>
+    <t>text that conveys some information</t>
+  </si>
+  <si>
+    <t>a quantity that represents the change in the value of some quantity relative to the change in another, e.g. velocity</t>
+  </si>
+  <si>
+    <t>a quantity whose value can be interpreted by some standard procedure to access another resource.</t>
+  </si>
+  <si>
+    <t>nominal</t>
+  </si>
+  <si>
+    <t>blob</t>
+  </si>
+  <si>
+    <t>primitive type represented as a bitstream</t>
+  </si>
+  <si>
+    <t>an interval measurement along a coordinate axis in a coordinate reference system</t>
+  </si>
+  <si>
+    <t>quantity-type</t>
+  </si>
+  <si>
+    <t>point location</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>an interval of time</t>
+  </si>
+  <si>
+    <t>time range</t>
+  </si>
+  <si>
+    <t>A time interval specified with bounding time coordinates</t>
+  </si>
+  <si>
+    <t>linear location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a location that is defined by a connected sequence of points in a spatial reference system. </t>
+  </si>
+  <si>
+    <t>patch location</t>
+  </si>
+  <si>
+    <t>a location that is bounded by a closed, connected collection of line locations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a data object that is a relation, a tuple consisting of a list of primitive values, with a record type defining the data type and semantics for each -column- (position) in the tuple. </t>
+  </si>
+  <si>
+    <t>a type that takes one of two values, typically associated with -true- and -false-</t>
+  </si>
+  <si>
+    <t>A time position specified using date and time from the modern Gregorian Calendar; specialization of a -date- quantity kind.</t>
+  </si>
+  <si>
+    <t>a measurement for which a value of 0 means -none-,  like interval measure, differences are meaningful, but ratios are also meaningful, example: mass.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -131,6 +324,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -160,11 +360,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -180,9 +381,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -489,204 +697,2934 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F720"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.36328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.90625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.90625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="45.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="str">
+        <f t="shared" ref="A2:A38" si="0">"def/"&amp;LOWER(SUBSTITUTE(F2," ", "-"))&amp;"/" &amp; LOWER(SUBSTITUTE(B2," ", "-"))</f>
+        <v>def/aggregation-type/common-value</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="str">
-        <f>"def/concept/" &amp; LOWER(SUBSTITUTE(B2," ", "-"))</f>
-        <v>def/concept/table</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A11" si="0">"def/concept/" &amp; LOWER(SUBSTITUTE(B3," ", "-"))</f>
-        <v>def/concept/data-object</v>
+        <f t="shared" si="0"/>
+        <v>def/aggregation-type/geometric-mean</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>def/concept/median</v>
+        <v>def/aggregation-type/mean</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>def/concept/mean</v>
+        <v>def/aggregation-type/median</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>def/concept/geometric-mean</v>
+        <v>def/aggregation-type/mode</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>def/concept/mode</v>
+        <v>def/aggregation-type/primitive</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>def/concept/common-value</v>
+        <v>def/logic-type/data-object</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>def/concept/primitive</v>
+        <v>def/logic-type/table</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>def/concept/date-range</v>
+        <v>def/primitive-type/blob</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>68</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>def/concept/controlled-vocabulary</v>
+        <v>def/primitive-type/boolean</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/primitive-type/integer</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/primitive-type/long-integer</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/quantity-type/point-location</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/primitive-type/real-number</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="2"/>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/primitive-type/string</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/primitive-type/term</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/primitive-type/uri</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/quantity-kind/clock-time</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/quantity-kind/continuous-field</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/quantity-kind/coordinate-measurement</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/quantity-kind/count</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/quantity-kind/date</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/quantity-kind/time-range</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/quantity-kind/date-time</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/quantity-kind/identifier</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/quantity-kind/interval-measurement</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/quantity-kind/name</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/quantity-kind/narrative-text</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/quantity-kind/nominal</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/quantity-kind/rate</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/quantity-kind/ratio-measurement</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/quantity-kind/reference</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/quantity-kind/duration</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/quantity-kind/truth-value</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/quantity-kind/vector</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/quantity-type/linear-location</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/quantity-type/patch-location</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412"/>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416"/>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422"/>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423"/>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424"/>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425"/>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426"/>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427"/>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428"/>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430"/>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431"/>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432"/>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433"/>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434"/>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435"/>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437"/>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438"/>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440"/>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441"/>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442"/>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443"/>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444"/>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445"/>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446"/>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448"/>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449"/>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450"/>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451"/>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452"/>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453"/>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454"/>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456"/>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457"/>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458"/>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459"/>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460"/>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462"/>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463"/>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464"/>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465"/>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466"/>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467"/>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469"/>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470"/>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471"/>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472"/>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473"/>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474"/>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475"/>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476"/>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477"/>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478"/>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479"/>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481"/>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483"/>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484"/>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485"/>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486"/>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487"/>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488"/>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489"/>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490"/>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491"/>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493"/>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494"/>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495"/>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496"/>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497"/>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498"/>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499"/>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500"/>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501"/>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502"/>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503"/>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504"/>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505"/>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506"/>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507"/>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508"/>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509"/>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510"/>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511"/>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512"/>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513"/>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514"/>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515"/>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A516"/>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A517"/>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A518"/>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A519"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A520"/>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521"/>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A522"/>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523"/>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524"/>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A525"/>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A526"/>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A527"/>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A528"/>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529"/>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530"/>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531"/>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532"/>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533"/>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534"/>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535"/>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536"/>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537"/>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538"/>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539"/>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540"/>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541"/>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A542"/>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A543"/>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A544"/>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545"/>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546"/>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547"/>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548"/>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549"/>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550"/>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551"/>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552"/>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553"/>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554"/>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555"/>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556"/>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557"/>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558"/>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559"/>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560"/>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561"/>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562"/>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563"/>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564"/>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565"/>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566"/>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567"/>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568"/>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569"/>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570"/>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571"/>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A572"/>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A573"/>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A574"/>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A575"/>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A576"/>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A577"/>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A578"/>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A579"/>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A580"/>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A581"/>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A582"/>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A583"/>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A584"/>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A585"/>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A586"/>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A587"/>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A588"/>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A589"/>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A590"/>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A591"/>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A592"/>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A593"/>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A594"/>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A595"/>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A596"/>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A597"/>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A598"/>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A599"/>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A600"/>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A601"/>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A602"/>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A603"/>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A604"/>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A605"/>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A606"/>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A607"/>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A608"/>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A609"/>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A610"/>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A611"/>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A612"/>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A613"/>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A614"/>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A615"/>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A616"/>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A617"/>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A618"/>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A619"/>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A620"/>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A621"/>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A622"/>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A623"/>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A624"/>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A625"/>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A626"/>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A627"/>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A628"/>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A629"/>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A630"/>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A631"/>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A632"/>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A633"/>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A634"/>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A635"/>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A636"/>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A637"/>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A638"/>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A639"/>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A640"/>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A641"/>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A642"/>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A643"/>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A644"/>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A645"/>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A646"/>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A647"/>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A648"/>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A649"/>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A650"/>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A651"/>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A652"/>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A653"/>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A654"/>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A655"/>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A656"/>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A657"/>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A658"/>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A659"/>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A660"/>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A661"/>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A662"/>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A663"/>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A664"/>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A665"/>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A666"/>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A667"/>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A668"/>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A669"/>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A670"/>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A671"/>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A672"/>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A673"/>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A674"/>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A675"/>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A676"/>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A677"/>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A678"/>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A679"/>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A680"/>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A681"/>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A682"/>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A683"/>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A684"/>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A685"/>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A686"/>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A687"/>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A688"/>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A689"/>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A690"/>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A691"/>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A692"/>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A693"/>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A694"/>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A695"/>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A696"/>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A697"/>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A698"/>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A699"/>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A700"/>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A701"/>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A702"/>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A703"/>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A704"/>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A705"/>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A706"/>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A707"/>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A708"/>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A709"/>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A710"/>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A711"/>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A712"/>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A713"/>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A714"/>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A715"/>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A716"/>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A717"/>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A718"/>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A719"/>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A720"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F35">
+    <sortCondition ref="F2:F35"/>
+    <sortCondition ref="B2:B35"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1"/>
+    <hyperlink ref="D16" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="135.85546875" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="str">
+        <f>"('"&amp;Concepts!A2&amp;"', '"&amp;Concepts!B2&amp;"', '"&amp;Concepts!C2&amp;"', '"&amp;Concepts!D2&amp;"', '"&amp;Concepts!E2&amp;"', '"&amp;Concepts!F2&amp;"'),"</f>
+        <v>('def/aggregation-type/common-value', 'common value', 'no formal statistics, an emprical assertion of a typical or expected value', 'This model', '', 'aggregation-type'),</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="str">
+        <f>"('"&amp;Concepts!A3&amp;"', '"&amp;Concepts!B3&amp;"', '"&amp;Concepts!C3&amp;"', '"&amp;Concepts!D3&amp;"', '"&amp;Concepts!E3&amp;"', '"&amp;Concepts!F3&amp;"'),"</f>
+        <v>('def/aggregation-type/geometric-mean', 'geometric mean', '', 'This model', '', 'aggregation-type'),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="str">
+        <f>"('"&amp;Concepts!A4&amp;"', '"&amp;Concepts!B4&amp;"', '"&amp;Concepts!C4&amp;"', '"&amp;Concepts!D4&amp;"', '"&amp;Concepts!E4&amp;"', '"&amp;Concepts!F4&amp;"'),"</f>
+        <v>('def/aggregation-type/mean', 'mean', '', 'This model', '', 'aggregation-type'),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="str">
+        <f>"('"&amp;Concepts!A5&amp;"', '"&amp;Concepts!B5&amp;"', '"&amp;Concepts!C5&amp;"', '"&amp;Concepts!D5&amp;"', '"&amp;Concepts!E5&amp;"', '"&amp;Concepts!F5&amp;"'),"</f>
+        <v>('def/aggregation-type/median', 'median', '', 'This model', '', 'aggregation-type'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="str">
+        <f>"('"&amp;Concepts!A6&amp;"', '"&amp;Concepts!B6&amp;"', '"&amp;Concepts!C6&amp;"', '"&amp;Concepts!D6&amp;"', '"&amp;Concepts!E6&amp;"', '"&amp;Concepts!F6&amp;"'),"</f>
+        <v>('def/aggregation-type/mode', 'mode', '', 'This model', '', 'aggregation-type'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="str">
+        <f>"('"&amp;Concepts!A7&amp;"', '"&amp;Concepts!B7&amp;"', '"&amp;Concepts!C7&amp;"', '"&amp;Concepts!D7&amp;"', '"&amp;Concepts!E7&amp;"', '"&amp;Concepts!F7&amp;"'),"</f>
+        <v>('def/aggregation-type/primitive', 'primitive', 'single atomic value', 'This model', '', 'aggregation-type'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="str">
+        <f>"('"&amp;Concepts!A8&amp;"', '"&amp;Concepts!B8&amp;"', '"&amp;Concepts!C8&amp;"', '"&amp;Concepts!D8&amp;"', '"&amp;Concepts!E8&amp;"', '"&amp;Concepts!F8&amp;"'),"</f>
+        <v>('def/logic-type/data-object', 'data object', 'representation as a set of key-value pairs where the values might have any data type', 'This model', '', 'logic-type'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="str">
+        <f>"('"&amp;Concepts!A9&amp;"', '"&amp;Concepts!B9&amp;"', '"&amp;Concepts!C9&amp;"', '"&amp;Concepts!D9&amp;"', '"&amp;Concepts!E9&amp;"', '"&amp;Concepts!F9&amp;"'),"</f>
+        <v>('def/logic-type/table', 'table', 'a data object that is a relation, a tuple consisting of a list of primitive values, with a record type defining the data type and semantics for each -column- (position) in the tuple. ', 'This model', '', 'logic-type'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="str">
+        <f>"('"&amp;Concepts!A10&amp;"', '"&amp;Concepts!B10&amp;"', '"&amp;Concepts!C10&amp;"', '"&amp;Concepts!D10&amp;"', '"&amp;Concepts!E10&amp;"', '"&amp;Concepts!F10&amp;"'),"</f>
+        <v>('def/primitive-type/blob', 'blob', 'primitive type represented as a bitstream', '', '', 'primitive-type'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="str">
+        <f>"('"&amp;Concepts!A11&amp;"', '"&amp;Concepts!B11&amp;"', '"&amp;Concepts!C11&amp;"', '"&amp;Concepts!D11&amp;"', '"&amp;Concepts!E11&amp;"', '"&amp;Concepts!F11&amp;"'),"</f>
+        <v>('def/primitive-type/boolean', 'boolean', 'a type that takes one of two values, typically associated with -true- and -false-', '', '', 'primitive-type'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="str">
+        <f>"('"&amp;Concepts!A12&amp;"', '"&amp;Concepts!B12&amp;"', '"&amp;Concepts!C12&amp;"', '"&amp;Concepts!D12&amp;"', '"&amp;Concepts!E12&amp;"', '"&amp;Concepts!F12&amp;"'),"</f>
+        <v>('def/primitive-type/integer', 'integer', 'a number that can be written without a fractional component.', 'https://en.wikipedia.org/wiki/Integer', '', 'primitive-type'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="str">
+        <f>"('"&amp;Concepts!A13&amp;"', '"&amp;Concepts!B13&amp;"', '"&amp;Concepts!C13&amp;"', '"&amp;Concepts!D13&amp;"', '"&amp;Concepts!E13&amp;"', '"&amp;Concepts!F13&amp;"'),"</f>
+        <v>('def/primitive-type/long-integer', 'long integer', 'Computer representation of an integer whose range is greater than or equal to that of a standard integer in the same computation environment.', '', '', 'primitive-type'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="str">
+        <f>"('"&amp;Concepts!A14&amp;"', '"&amp;Concepts!B14&amp;"', '"&amp;Concepts!C14&amp;"', '"&amp;Concepts!D14&amp;"', '"&amp;Concepts!E14&amp;"', '"&amp;Concepts!F14&amp;"'),"</f>
+        <v>('def/quantity-type/point-location', 'point location', 'a location with no spatial extent specified in some spatial reference system. ', '', '', 'quantity-type'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="str">
+        <f>"('"&amp;Concepts!A15&amp;"', '"&amp;Concepts!B15&amp;"', '"&amp;Concepts!C15&amp;"', '"&amp;Concepts!D15&amp;"', '"&amp;Concepts!E15&amp;"', '"&amp;Concepts!F15&amp;"'),"</f>
+        <v>('def/primitive-type/real-number', 'real number', 'Real numbers can be thought of as points on an infinitely long line; a superset of the rational numbers, which include integers, which include natural numbers. Not countable--between any two real numbers there are other real numbers. Any real number can be determined by a possibly infinite decimal representation.', 'Based on https://en.wikipedia.org/wiki/Real_number', '', 'primitive-type'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="str">
+        <f>"('"&amp;Concepts!A16&amp;"', '"&amp;Concepts!B16&amp;"', '"&amp;Concepts!C16&amp;"', '"&amp;Concepts!D16&amp;"', '"&amp;Concepts!E16&amp;"', '"&amp;Concepts!F16&amp;"'),"</f>
+        <v>('def/primitive-type/string', 'string', 'A sequence of characters. ', 'https://en.wikipedia.org/wiki/String_(computer_science)', '', 'primitive-type'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="str">
+        <f>"('"&amp;Concepts!A17&amp;"', '"&amp;Concepts!B17&amp;"', '"&amp;Concepts!C17&amp;"', '"&amp;Concepts!D17&amp;"', '"&amp;Concepts!E17&amp;"', '"&amp;Concepts!F17&amp;"'),"</f>
+        <v>('def/primitive-type/term', 'term', 'A member of a controlled vocabulary; may be identified by a label or an indentifier string', 'This model', '', 'primitive-type'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="str">
+        <f>"('"&amp;Concepts!A18&amp;"', '"&amp;Concepts!B18&amp;"', '"&amp;Concepts!C18&amp;"', '"&amp;Concepts!D18&amp;"', '"&amp;Concepts!E18&amp;"', '"&amp;Concepts!F18&amp;"'),"</f>
+        <v>('def/primitive-type/uri', 'URI', 'an indentifier string conforming to syntax defined by RFC-3986', 'IETF RFC-3986', '', 'primitive-type'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="str">
+        <f>"('"&amp;Concepts!A19&amp;"', '"&amp;Concepts!B19&amp;"', '"&amp;Concepts!C19&amp;"', '"&amp;Concepts!D19&amp;"', '"&amp;Concepts!E19&amp;"', '"&amp;Concepts!F19&amp;"'),"</f>
+        <v>('def/quantity-kind/clock-time', 'clock time', 'A time position within a 24 hour day', '', '', 'quantity kind'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="str">
+        <f>"('"&amp;Concepts!A20&amp;"', '"&amp;Concepts!B20&amp;"', '"&amp;Concepts!C20&amp;"', '"&amp;Concepts!D20&amp;"', '"&amp;Concepts!E20&amp;"', '"&amp;Concepts!F20&amp;"'),"</f>
+        <v>('def/quantity-kind/continuous-field', 'continuous field', 'a quantifier that associates a location within some mathematical reference system with a quantity value', '', '', 'quantity kind'),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="str">
+        <f>"('"&amp;Concepts!A21&amp;"', '"&amp;Concepts!B21&amp;"', '"&amp;Concepts!C21&amp;"', '"&amp;Concepts!D21&amp;"', '"&amp;Concepts!E21&amp;"', '"&amp;Concepts!F21&amp;"'),"</f>
+        <v>('def/quantity-kind/coordinate-measurement', 'coordinate measurement', 'an interval measurement along a coordinate axis in a coordinate reference system', '', '', 'quantity kind'),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="str">
+        <f>"('"&amp;Concepts!A22&amp;"', '"&amp;Concepts!B22&amp;"', '"&amp;Concepts!C22&amp;"', '"&amp;Concepts!D22&amp;"', '"&amp;Concepts!E22&amp;"', '"&amp;Concepts!F22&amp;"'),"</f>
+        <v>('def/quantity-kind/count', 'count', 'a quantity that specifies a positive integer number of instances ', '', '', 'quantity kind'),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="str">
+        <f>"('"&amp;Concepts!A23&amp;"', '"&amp;Concepts!B23&amp;"', '"&amp;Concepts!C23&amp;"', '"&amp;Concepts!D23&amp;"', '"&amp;Concepts!E23&amp;"', '"&amp;Concepts!F23&amp;"'),"</f>
+        <v>('def/quantity-kind/date', 'date', 'A time position specified using date from the modern Gregorian Calendar', '', '', 'quantity kind'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="str">
+        <f>"('"&amp;Concepts!A24&amp;"', '"&amp;Concepts!B24&amp;"', '"&amp;Concepts!C24&amp;"', '"&amp;Concepts!D24&amp;"', '"&amp;Concepts!E24&amp;"', '"&amp;Concepts!F24&amp;"'),"</f>
+        <v>('def/quantity-kind/time-range', 'time range', 'A time interval specified with bounding time coordinates', 'This model', '', 'quantity kind'),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="str">
+        <f>"('"&amp;Concepts!A25&amp;"', '"&amp;Concepts!B25&amp;"', '"&amp;Concepts!C25&amp;"', '"&amp;Concepts!D25&amp;"', '"&amp;Concepts!E25&amp;"', '"&amp;Concepts!F25&amp;"'),"</f>
+        <v>('def/quantity-kind/date-time', 'date time', 'A time position specified using date and time from the modern Gregorian Calendar; specialization of a -date- quantity kind.', '', '', 'quantity kind'),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="str">
+        <f>"('"&amp;Concepts!A26&amp;"', '"&amp;Concepts!B26&amp;"', '"&amp;Concepts!C26&amp;"', '"&amp;Concepts!D26&amp;"', '"&amp;Concepts!E26&amp;"', '"&amp;Concepts!F26&amp;"'),"</f>
+        <v>('def/quantity-kind/identifier', 'identifier', 'A string token that represents some other thing; depending on the identifier scheme,  might be dereferenceable, in which case it is a kind of reference.', '', '', 'quantity kind'),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="str">
+        <f>"('"&amp;Concepts!A27&amp;"', '"&amp;Concepts!B27&amp;"', '"&amp;Concepts!C27&amp;"', '"&amp;Concepts!D27&amp;"', '"&amp;Concepts!E27&amp;"', '"&amp;Concepts!F27&amp;"'),"</f>
+        <v>('def/quantity-kind/interval-measurement', 'interval measurement', 'A value for which the difference between values is meaningful, but not the ratio. Example --temperature celsius.', '', '', 'quantity kind'),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="str">
+        <f>"('"&amp;Concepts!A28&amp;"', '"&amp;Concepts!B28&amp;"', '"&amp;Concepts!C28&amp;"', '"&amp;Concepts!D28&amp;"', '"&amp;Concepts!E28&amp;"', '"&amp;Concepts!F28&amp;"'),"</f>
+        <v>('def/quantity-kind/name', 'name', 'a string token intended to identify some thing for human usage; a kind of identifier', '', '', 'quantity kind'),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="str">
+        <f>"('"&amp;Concepts!A29&amp;"', '"&amp;Concepts!B29&amp;"', '"&amp;Concepts!C29&amp;"', '"&amp;Concepts!D29&amp;"', '"&amp;Concepts!E29&amp;"', '"&amp;Concepts!F29&amp;"'),"</f>
+        <v>('def/quantity-kind/narrative-text', 'narrative text', 'text that conveys some information', '', '', 'quantity kind'),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="str">
+        <f>"('"&amp;Concepts!A30&amp;"', '"&amp;Concepts!B30&amp;"', '"&amp;Concepts!C30&amp;"', '"&amp;Concepts!D30&amp;"', '"&amp;Concepts!E30&amp;"', '"&amp;Concepts!F30&amp;"'),"</f>
+        <v>('def/quantity-kind/nominal', 'nominal', 'a nominal quantity, specified by a term or identifier', '', '', 'quantity kind'),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="str">
+        <f>"('"&amp;Concepts!A31&amp;"', '"&amp;Concepts!B31&amp;"', '"&amp;Concepts!C31&amp;"', '"&amp;Concepts!D31&amp;"', '"&amp;Concepts!E31&amp;"', '"&amp;Concepts!F31&amp;"'),"</f>
+        <v>('def/quantity-kind/rate', 'rate', 'a quantity that represents the change in the value of some quantity relative to the change in another, e.g. velocity', '', '', 'quantity kind'),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="str">
+        <f>"('"&amp;Concepts!A32&amp;"', '"&amp;Concepts!B32&amp;"', '"&amp;Concepts!C32&amp;"', '"&amp;Concepts!D32&amp;"', '"&amp;Concepts!E32&amp;"', '"&amp;Concepts!F32&amp;"'),"</f>
+        <v>('def/quantity-kind/ratio-measurement', 'ratio measurement', 'a measurement for which a value of 0 means -none-,  like interval measure, differences are meaningful, but ratios are also meaningful, example: mass.', '', '', 'quantity kind'),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="str">
+        <f>"('"&amp;Concepts!A33&amp;"', '"&amp;Concepts!B33&amp;"', '"&amp;Concepts!C33&amp;"', '"&amp;Concepts!D33&amp;"', '"&amp;Concepts!E33&amp;"', '"&amp;Concepts!F33&amp;"'),"</f>
+        <v>('def/quantity-kind/reference', 'reference', 'a quantity whose value can be interpreted by some standard procedure to access another resource.', '', '', 'quantity kind'),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="str">
+        <f>"('"&amp;Concepts!A34&amp;"', '"&amp;Concepts!B34&amp;"', '"&amp;Concepts!C34&amp;"', '"&amp;Concepts!D34&amp;"', '"&amp;Concepts!E34&amp;"', '"&amp;Concepts!F34&amp;"'),"</f>
+        <v>('def/quantity-kind/duration', 'duration', 'an interval of time', '', '', 'quantity kind'),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="str">
+        <f>"('"&amp;Concepts!A35&amp;"', '"&amp;Concepts!B35&amp;"', '"&amp;Concepts!C35&amp;"', '"&amp;Concepts!D35&amp;"', '"&amp;Concepts!E35&amp;"', '"&amp;Concepts!F35&amp;"'),"</f>
+        <v>('def/quantity-kind/truth-value', 'truth value', 'true or false', '', '', 'quantity kind'),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="str">
+        <f>"('"&amp;Concepts!A36&amp;"', '"&amp;Concepts!B36&amp;"', '"&amp;Concepts!C36&amp;"', '"&amp;Concepts!D36&amp;"', '"&amp;Concepts!E36&amp;"', '"&amp;Concepts!F36&amp;"'),"</f>
+        <v>('def/quantity-kind/vector', 'vector', 'a quantity that specifies a direction within some spatial reference system, and a magnitude.', '', '', 'quantity kind'),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="str">
+        <f>"('"&amp;Concepts!A37&amp;"', '"&amp;Concepts!B37&amp;"', '"&amp;Concepts!C37&amp;"', '"&amp;Concepts!D37&amp;"', '"&amp;Concepts!E37&amp;"', '"&amp;Concepts!F37&amp;"'),"</f>
+        <v>('def/quantity-type/linear-location', 'linear location', 'a location that is defined by a connected sequence of points in a spatial reference system. ', '', '', 'quantity-type'),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="str">
+        <f>"('"&amp;Concepts!A38&amp;"', '"&amp;Concepts!B38&amp;"', '"&amp;Concepts!C38&amp;"', '"&amp;Concepts!D38&amp;"', '"&amp;Concepts!E38&amp;"', '"&amp;Concepts!F38&amp;"'),"</f>
+        <v>('def/quantity-type/patch-location', 'patch location', 'a location that is bounded by a closed, connected collection of line locations.', '', '', 'quantity-type'),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="str">
+        <f>"('"&amp;Concepts!A39&amp;"', '"&amp;Concepts!B39&amp;"', '"&amp;Concepts!C39&amp;"', '"&amp;Concepts!D39&amp;"', '"&amp;Concepts!E39&amp;"', '"&amp;Concepts!F39&amp;"'),"</f>
+        <v>('', '', '', '', '', ''),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="str">
+        <f>"('"&amp;Concepts!A40&amp;"', '"&amp;Concepts!B40&amp;"', '"&amp;Concepts!C40&amp;"', '"&amp;Concepts!D40&amp;"', '"&amp;Concepts!E40&amp;"', '"&amp;Concepts!F40&amp;"'),"</f>
+        <v>('', '', '', '', '', ''),</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
